--- a/data/trans_bre/P26_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P26_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,05</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,24</t>
+          <t>11,78</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>9,19</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>2,37</t>
+          <t>-3,57</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>70,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>268,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>10,98%</t>
+          <t>80,53%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>138,69%</t>
+          <t>904,55%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>19,47%</t>
+          <t>108,75%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>85,89%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-18,24%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 7,64</t>
+          <t>-2,68; 5,93</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 13,15</t>
+          <t>5,57; 18,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,85; 7,43</t>
+          <t>0,79; 8,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 26,66</t>
+          <t>0,37; 7,81</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 9,53</t>
+          <t>-32,94; 10,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-38,59; 410,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>8,72; 1395,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-57,48; 116,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 561,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 110,26</t>
+          <t>9,28; 347,3</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1,32; 273,76</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-76,52; 151,07</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>8,76</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,33</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,3</t>
+          <t>6,07</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,13</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>10,38</t>
+          <t>4,44</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>194,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>90,39%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>134,27%</t>
+          <t>338,76%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>106,83%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>83,02%</t>
+          <t>193,63%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>86,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>113,96%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,91; 14,48</t>
+          <t>0,74; 5,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,88; 10,31</t>
+          <t>0,17; 5,97</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 15,54</t>
+          <t>3,35; 9,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 9,52</t>
+          <t>1,45; 7,48</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,08; 17,86</t>
+          <t>0,74; 7,45</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>39,8; 653,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,11; 253,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>39,09; 304,86</t>
+          <t>-36,52; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 85,69</t>
+          <t>-4,5; 339,21</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>15,46; 206,54</t>
+          <t>65,02; 471,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>20,42; 192,51</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>6,09; 286,58</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-5,69</t>
+          <t>-1,97</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,61</t>
+          <t>1,92</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>3,92</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,12</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,76</t>
+          <t>5,07</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-40,84%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>38,26%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,32%</t>
+          <t>-60,84%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>16,49%</t>
+          <t>68,84%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>387,98%</t>
+          <t>89,88%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>21,77%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>144,89%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-20,58; 3,86</t>
+          <t>-4,87; 0,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,5; 10,49</t>
+          <t>-1,09; 5,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,32; 12,89</t>
+          <t>0,82; 7,09</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 10,42</t>
+          <t>-1,91; 4,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>10,0; 29,35</t>
+          <t>1,47; 8,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-83,68; 59,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 174,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,46; 137,7</t>
+          <t>-100,0; 89,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,64; 73,93</t>
+          <t>-30,1; 404,9</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>63,24; 1612,89</t>
+          <t>7,6; 249,25</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-22,51; 82,57</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>22,36; 472,97</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>2,99</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,55</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,28</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>45,55%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>91,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,37%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>36,17%</t>
+          <t>108,48%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>73,34%</t>
+          <t>73,2%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>142,66%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,15; 7,02</t>
+          <t>-0,4; 3,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,09; 8,77</t>
+          <t>0,77; 5,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,29; 9,35</t>
+          <t>-2,64; 7,58</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,66; 10,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,65; 13,29</t>
+          <t>1,32; 10,01</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,67; 135,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,94; 203,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,58; 116,2</t>
+          <t>-17,04; 321,97</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 92,52</t>
+          <t>11,27; 326,8</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>24,01; 145,05</t>
+          <t>-41,3; 388,16</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>8,49; 434,83</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,77</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,66</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,43</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>4,22</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>74,1%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>143,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>117,53%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>58,81%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>72,97%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,17; 2,57</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 5,25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2,81; 6,49</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1,52; 5,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-1,31; 6,71</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-11,4; 199,0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>63,88; 262,51</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>50,81; 210,29</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>21,68; 113,18</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-18,61; 163,91</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
